--- a/swings/2021-11-22/KUCOIN_SPOT_KCS_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_KCS_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>24.248</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1047,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>24.022</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1104,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>23.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1159,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1214,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>24.144</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1399,6 +1434,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1489,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1505,6 +1544,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>23.775</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1601,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>23.933</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1663,6 +1709,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1715,6 +1762,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1769,6 +1817,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1821,6 +1872,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1927,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>23.319</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1929,6 +1984,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>23.018</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2039,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2033,6 +2092,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2147,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>23.199</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2141,6 +2204,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2195,6 +2261,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>22.96</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2318,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>22.831</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2373,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2426,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2405,6 +2479,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2459,6 +2534,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>23.145</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2513,6 +2591,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>22.857</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2565,6 +2646,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2617,6 +2699,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2671,6 +2754,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>22.998</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2811,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>22.766</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2777,6 +2866,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2829,6 +2919,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2881,6 +2972,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2933,6 +3025,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2987,6 +3080,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>23.359</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3041,6 +3137,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>23.053</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3093,6 +3192,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3145,6 +3245,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3197,6 +3298,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3251,6 +3353,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>23.452</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3303,6 +3408,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3357,6 +3463,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>23.295</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3409,6 +3518,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3463,6 +3573,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>23.563</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3515,6 +3628,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3567,6 +3681,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3619,6 +3734,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3673,6 +3789,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>23.121</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3727,6 +3846,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>23.217</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3781,6 +3903,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>23.131</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3833,6 +3958,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3887,6 +4013,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>23.378</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3939,6 +4068,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3993,6 +4123,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>23.183</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4045,6 +4178,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4099,6 +4233,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>23.48</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4153,6 +4290,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>23.371</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4205,6 +4345,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4259,6 +4400,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>23.497</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4313,6 +4457,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>23.336</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4365,6 +4512,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4417,6 +4565,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4469,6 +4618,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4673,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>23.611</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4575,6 +4728,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4627,6 +4781,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4834,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4733,6 +4889,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4944,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4837,6 +4997,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4891,6 +5052,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>23.955</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4945,6 +5109,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>23.659</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4999,6 +5166,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5051,6 +5221,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5276,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>23.48</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5159,6 +5333,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>23.734</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5211,6 +5388,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5265,6 +5443,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>23.415</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5319,6 +5500,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>23.772</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5373,6 +5557,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>23.546</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5425,6 +5612,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5479,6 +5667,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>23.852</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5533,6 +5724,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>23.623</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5585,6 +5779,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5639,6 +5834,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>23.733</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5693,6 +5891,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>23.115</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5747,6 +5948,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>23.45</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5799,6 +6003,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5851,6 +6056,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5903,6 +6109,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5955,6 +6162,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6009,6 +6217,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>23.16</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6061,6 +6272,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6113,6 +6325,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6167,6 +6380,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>23.361</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6219,6 +6435,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6271,6 +6488,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6323,6 +6541,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6375,6 +6594,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6427,6 +6647,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6479,6 +6700,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6531,6 +6753,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6585,6 +6808,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6639,6 +6865,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>23.107</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6691,6 +6920,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6743,6 +6973,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6795,6 +7026,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6849,6 +7081,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>21.765</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6901,6 +7136,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6953,6 +7189,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7005,6 +7242,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7059,6 +7297,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>22.548</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7111,6 +7352,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7165,6 +7407,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>22.18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7217,6 +7462,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7271,6 +7517,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>22.53</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7325,6 +7574,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>22.404</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7377,6 +7629,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7429,6 +7682,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7481,6 +7735,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7535,6 +7790,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>22.75</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7587,6 +7845,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7639,6 +7898,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7693,6 +7953,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>22.355</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7745,6 +8008,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7797,6 +8061,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7851,6 +8116,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>22.725</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7903,6 +8171,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7955,6 +8224,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8007,6 +8277,7 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8061,6 +8332,9 @@
           <t>KCSUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>22.312</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8114,6 +8388,9 @@
         <is>
           <t>KCSUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>22.569</v>
       </c>
     </row>
   </sheetData>
